--- a/biology/Histoire de la zoologie et de la botanique/Musée_national_d'histoire_naturelle_de_l'Uruguay/Musée_national_d'histoire_naturelle_de_l'Uruguay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_national_d'histoire_naturelle_de_l'Uruguay/Musée_national_d'histoire_naturelle_de_l'Uruguay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_d%27histoire_naturelle_de_l%27Uruguay</t>
+          <t>Musée_national_d'histoire_naturelle_de_l'Uruguay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Musée national d'histoire naturelle de l'Uruguay (en espagnol, Museo Nacional de Historia Natural de Uruguay) est un musée de l’Uruguay fondé en 1837 et situé à Montevideo. En 2001 il est passé à être administré, conjointement avec le « Museo Nacional de Antropología » (fondé, lui, en 1981) par une entité nommée « Museos Nacionales de Historia Natural y Antropología ». En 2004 une décision présidentielle a renommé cette institution en un seul musée nommé « Museo Nacional de Historia Natural y Antropología », mais dans la réalité des faits le musée d'histoire naturelle a continué de s'appeler « Museo Nacional de Historia Natural »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée national d'histoire naturelle de l'Uruguay (en espagnol, Museo Nacional de Historia Natural de Uruguay) est un musée de l’Uruguay fondé en 1837 et situé à Montevideo. En 2001 il est passé à être administré, conjointement avec le « Museo Nacional de Antropología » (fondé, lui, en 1981) par une entité nommée « Museos Nacionales de Historia Natural y Antropología ». En 2004 une décision présidentielle a renommé cette institution en un seul musée nommé « Museo Nacional de Historia Natural y Antropología », mais dans la réalité des faits le musée d'histoire naturelle a continué de s'appeler « Museo Nacional de Historia Natural ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_d%27histoire_naturelle_de_l%27Uruguay</t>
+          <t>Musée_national_d'histoire_naturelle_de_l'Uruguay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce musée d'histoire naturelle est créé en 1837, sept ans seulement après la première constitution de l'Uruguay. Le gouvernement charge une commission notamment constitué de naturalistes comme Teodoro Miguel Vilardebó (1803-1857) et Dámaso Antonio Larrañaga (1771-1848) de constituer des collections et la bibliothèque du futur musée. Parmi les autres membres de la commission, on peut citer Ramon Masini, Bernardo Prudencio Berro Larrañaga (1803-1868), Manuel Errazquín et Christopher Salvañach.
 La première mission scientifique organisée par le Musée l'est dès 1837 et compte parmi ses membres Vilardebó, Berro Larrañaga et Arsène Isabelle (1807-1888). Il s’agit de trouver des fossiles dans le silex de la province de Canelones.
